--- a/data/expt_2/raw_transcripts/game67.xlsx
+++ b/data/expt_2/raw_transcripts/game67.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MVI_0087.MP4.csv" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="MVI_0087.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -678,12 +678,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -699,2942 +703,3048 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+      <selection pane="bottomLeft" activeCell="F181" activeCellId="0" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>17000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>17000</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>18000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>18000</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>23000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>23000</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>31000</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>31000</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>47000</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>47000</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>49000</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>49000</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>52000</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>52000</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>53000</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>53000</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>60000</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>60000</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>62000</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>62000</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>63000</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>63000</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>64000</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>64000</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>65000</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>65000</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>68000</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>68000</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>76000</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>76000</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>81840</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>81840</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>85920</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>85920</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>91600</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>91600</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>97440</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>97440</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>99600</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>99600</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>102540</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>102820</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>106200</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>106960</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>109460</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>109720</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>111760</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>112320</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>114120</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>114300</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>115740</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>116240</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>116900</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>117620</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>122180</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>122180</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>125740</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>125740</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>128280</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>128280</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>130920</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>130920</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>134420</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>137380</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>138220</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>138220</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>140760</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>140760</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>141760</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>141760</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>143260</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>143260</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>144560</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>144560</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>147220</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>147220</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>150060</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>150060</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>151260</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>151260</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>153260</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>153260</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>157260</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>161260</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>163260</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="n">
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>163260</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>164260</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>164260</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>165260</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>165260</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>170260</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1" t="n">
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>170260</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>172260</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>172260</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>175260</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>175260</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>180260</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>180260</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>181260</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>181260</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>182260</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>182260</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>191260</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>191260</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>194260</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>194260</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>195260</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>195260</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>196260</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>196260</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>199260</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>199260</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>203260</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>203260</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>205260</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>205260</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>207260</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>207260</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>208260</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>208260</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>209260</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>211260</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>212260</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>212260</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>215260</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>215260</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>216260</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1" t="n">
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>216260</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>218260</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>218260</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>220260</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>220260</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>222260</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>222260</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>225260</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>225260</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>228260</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>228260</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>230260</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>230260</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>233260</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>233260</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>234260</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>234260</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>235260</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>235260</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>238400</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>238540</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>239540</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>239700</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>240660</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>241100</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>242600</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>242780</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>243980</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>243980</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>248280</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>248660</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>250920</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>251720</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>254460</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>258120</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>259960</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>261560</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>261920</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>261920</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>263020</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>264320</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>265240</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="1" t="n">
+      <c r="D95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>265240</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>268240</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>268240</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>274240</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>274240</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>277240</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>277240</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>280240</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>280240</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>282240</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="1" t="n">
+      <c r="D100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>282240</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>288240</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>288240</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>292240</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>292240</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>294240</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="1" t="n">
+      <c r="D103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>294240</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>299240</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>299240</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>303240</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>303240</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>307240</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>307240</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>311240</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>311240</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>313240</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>313240</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>315240</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>315240</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>316240</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>316240</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>319240</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="1" t="n">
+      <c r="D111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>319240</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>321240</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>321240</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>323240</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>323240</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>324240</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>324240</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>326240</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>326240</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>328240</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>330240</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="2" t="n">
         <v>332240</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>332240</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="2" t="n">
         <v>334240</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="1" t="n">
+      <c r="D118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>334240</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="2" t="n">
         <v>339240</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>339240</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="2" t="n">
         <v>341240</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>341240</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="2" t="n">
         <v>344240</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>344240</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="2" t="n">
         <v>347240</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>347240</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="2" t="n">
         <v>350240</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H123" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>350240</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="2" t="n">
         <v>352240</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>352240</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="2" t="n">
         <v>353240</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>353240</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="2" t="n">
         <v>360240</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>360240</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="2" t="n">
         <v>363240</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>363240</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="2" t="n">
         <v>365240</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>365240</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="2" t="n">
         <v>366240</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>366240</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="2" t="n">
         <v>368240</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>368240</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="2" t="n">
         <v>371240</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>371240</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="2" t="n">
         <v>373240</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>373240</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="2" t="n">
         <v>375240</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="1" t="n">
+      <c r="E133" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>375240</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="2" t="n">
         <v>378240</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>378240</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="2" t="n">
         <v>381240</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H135" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>381240</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="2" t="n">
         <v>382240</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>382240</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="2" t="n">
         <v>386240</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>386240</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="2" t="n">
         <v>387240</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>388240</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="2" t="n">
         <v>389240</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E139" s="1" t="n">
+      <c r="E139" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>393240</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="2" t="n">
         <v>397240</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H140" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>397240</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="2" t="n">
         <v>399240</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>399240</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="2" t="n">
         <v>400240</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>400240</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="2" t="n">
         <v>403240</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="1" t="n">
+      <c r="D143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>407240</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="2" t="n">
         <v>411240</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>411240</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>412240</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="H145" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>416240</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>419240</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E146" s="1" t="n">
+      <c r="E146" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>419240</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>421240</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H147" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>421240</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>425240</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>425240</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>428240</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>428240</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>431240</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="1" t="n">
+      <c r="E150" s="2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>431240</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>434240</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>434240</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>436240</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>436240</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>439240</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>449240</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="2" t="n">
         <v>454240</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E154" s="1" t="n">
+      <c r="E154" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>449240</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="2" t="n">
         <v>454240</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E155" s="1" t="n">
+      <c r="E155" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>454240</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="2" t="n">
         <v>456240</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="1"/>
+      <c r="D156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>456240</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="2" t="n">
         <v>458240</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>458240</v>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="2" t="n">
         <v>460240</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H158" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>460240</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="2" t="n">
         <v>464240</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E159" s="1" t="n">
+      <c r="E159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H159" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>470240</v>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="B160" s="2" t="n">
         <v>475240</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E160" s="1" t="n">
+      <c r="E160" s="2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>475240</v>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="2" t="n">
         <v>477240</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>477240</v>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="2" t="n">
         <v>479240</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>479240</v>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="2" t="n">
         <v>484240</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>484240</v>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="2" t="n">
         <v>485240</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H164" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>485240</v>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="2" t="n">
         <v>486240</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="1" t="n">
+      <c r="D165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="2" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>486240</v>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="2" t="n">
         <v>491240</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>491240</v>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="2" t="n">
         <v>496240</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1" t="s">
+      <c r="E167" s="2"/>
+      <c r="F167" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>499240</v>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="2" t="n">
         <v>501240</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="1" t="n">
+      <c r="D168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="2" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>501240</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="2" t="n">
         <v>504240</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H169" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>507240</v>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="2" t="n">
         <v>512240</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="1" t="n">
+      <c r="D170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="2" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>512240</v>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="2" t="n">
         <v>514240</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>514240</v>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="2" t="n">
         <v>516240</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>516240</v>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="2" t="n">
         <v>520240</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="H173" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>520240</v>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="2" t="n">
         <v>527240</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>527240</v>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="2" t="n">
         <v>530240</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>530240</v>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="2" t="n">
         <v>533240</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>533240</v>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="2" t="n">
         <v>535240</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>535240</v>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="2" t="n">
         <v>539240</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>539240</v>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="2" t="n">
         <v>542240</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>542240</v>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="2" t="n">
         <v>544240</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>544240</v>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="2" t="n">
         <v>547240</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>547240</v>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="2" t="n">
         <v>548240</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>548240</v>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="2" t="n">
         <v>550240</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>550240</v>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="2" t="n">
         <v>552240</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>552240</v>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="2" t="n">
         <v>553240</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>553240</v>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="2" t="n">
         <v>555240</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>555240</v>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="2" t="n">
         <v>557240</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game67.xlsx
+++ b/data/expt_2/raw_transcripts/game67.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="194">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alright, now you're on camera.</t>
   </si>
   <si>
@@ -230,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh wait, no.</t>
@@ -678,7 +684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -688,6 +694,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -814,12 +824,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F181" activeCellId="0" sqref="F181"/>
+      <selection pane="bottomLeft" activeCell="E135" activeCellId="0" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -855,6 +865,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -864,10 +877,10 @@
         <v>3000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,10 +891,10 @@
         <v>7000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,10 +905,10 @@
         <v>8000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,10 +919,10 @@
         <v>13000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,10 +933,10 @@
         <v>17000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,10 +947,10 @@
         <v>18000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,10 +961,10 @@
         <v>20000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +975,10 @@
         <v>23000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,10 +989,10 @@
         <v>27000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,10 +1003,10 @@
         <v>31000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,10 +1017,10 @@
         <v>41000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,10 +1031,10 @@
         <v>43000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,10 +1045,10 @@
         <v>44000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1059,10 @@
         <v>47000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,10 +1073,10 @@
         <v>49000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1087,10 @@
         <v>52000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1101,10 @@
         <v>53000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,10 +1115,10 @@
         <v>60000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,10 +1129,10 @@
         <v>62000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,10 +1143,10 @@
         <v>63000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,10 +1157,10 @@
         <v>64000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,10 +1171,10 @@
         <v>65000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,10 +1185,10 @@
         <v>68000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,10 +1199,10 @@
         <v>76000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,10 +1213,10 @@
         <v>81840</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,10 +1227,10 @@
         <v>85920</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,10 +1241,10 @@
         <v>91600</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,10 +1255,10 @@
         <v>97440</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,10 +1269,10 @@
         <v>99600</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1283,10 @@
         <v>102540</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1297,10 @@
         <v>106200</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,10 +1311,10 @@
         <v>109460</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,10 +1325,10 @@
         <v>111760</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,10 +1339,10 @@
         <v>114120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,10 +1353,10 @@
         <v>115740</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,10 +1367,10 @@
         <v>116900</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,10 +1381,10 @@
         <v>122180</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,10 +1395,10 @@
         <v>125740</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,10 +1409,10 @@
         <v>128280</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,10 +1423,10 @@
         <v>130920</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,10 +1437,10 @@
         <v>134420</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,10 +1451,10 @@
         <v>138220</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,10 +1465,10 @@
         <v>140760</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,10 +1479,10 @@
         <v>141760</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,10 +1493,10 @@
         <v>143260</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,10 +1507,10 @@
         <v>144560</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,10 +1521,10 @@
         <v>147220</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,10 +1535,10 @@
         <v>150060</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,10 +1549,10 @@
         <v>151260</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,10 +1563,10 @@
         <v>153260</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,10 +1577,10 @@
         <v>157260</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,10 +1591,10 @@
         <v>163260</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>0</v>
@@ -1596,13 +1609,13 @@
         <v>164260</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,10 +1626,10 @@
         <v>165260</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,10 +1640,10 @@
         <v>170260</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>1</v>
@@ -1644,10 +1657,10 @@
         <v>172260</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,10 +1671,10 @@
         <v>175260</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,10 +1685,10 @@
         <v>180260</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,13 +1699,16 @@
         <v>181260</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,10 +1719,10 @@
         <v>182260</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,10 +1733,10 @@
         <v>191260</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,10 +1747,10 @@
         <v>194260</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,16 +1761,19 @@
         <v>195260</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,10 +1784,10 @@
         <v>196260</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,13 +1798,13 @@
         <v>199260</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,10 +1815,10 @@
         <v>203260</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,10 +1829,10 @@
         <v>205260</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,10 +1843,10 @@
         <v>207260</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +1857,10 @@
         <v>208260</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,10 +1871,10 @@
         <v>209260</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,13 +1885,16 @@
         <v>212260</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,10 +1905,10 @@
         <v>215260</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,10 +1919,10 @@
         <v>216260</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>2</v>
@@ -1914,10 +1936,10 @@
         <v>218260</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,10 +1950,10 @@
         <v>220260</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,10 +1964,10 @@
         <v>222260</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,10 +1978,10 @@
         <v>225260</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +1992,10 @@
         <v>228260</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,10 +2006,10 @@
         <v>230260</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,16 +2020,19 @@
         <v>233260</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,13 +2043,16 @@
         <v>234260</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,13 +2063,16 @@
         <v>235260</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,10 +2083,10 @@
         <v>238400</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2097,10 @@
         <v>239540</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,13 +2111,13 @@
         <v>240660</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,13 +2128,13 @@
         <v>242600</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,10 +2145,10 @@
         <v>243980</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,10 +2159,10 @@
         <v>248280</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,10 +2173,10 @@
         <v>250920</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,10 +2187,10 @@
         <v>254460</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2201,10 @@
         <v>259960</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,13 +2215,16 @@
         <v>261920</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,10 +2235,10 @@
         <v>263020</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,10 +2249,10 @@
         <v>265240</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>3</v>
@@ -2232,13 +2266,13 @@
         <v>268240</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,16 +2283,19 @@
         <v>274240</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,13 +2306,16 @@
         <v>277240</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,13 +2326,16 @@
         <v>280240</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,10 +2346,10 @@
         <v>282240</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>4</v>
@@ -2320,13 +2363,16 @@
         <v>288240</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,16 +2383,19 @@
         <v>292240</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,10 +2406,10 @@
         <v>294240</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>5</v>
@@ -2374,13 +2423,16 @@
         <v>299240</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,13 +2443,16 @@
         <v>303240</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,16 +2463,19 @@
         <v>307240</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,13 +2486,16 @@
         <v>311240</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,13 +2506,16 @@
         <v>313240</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,13 +2526,13 @@
         <v>315240</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,10 +2543,10 @@
         <v>316240</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,10 +2557,10 @@
         <v>319240</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>6</v>
@@ -2510,13 +2574,16 @@
         <v>321240</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,10 +2594,10 @@
         <v>323240</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,10 +2608,10 @@
         <v>324240</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,16 +2622,19 @@
         <v>326240</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,13 +2645,16 @@
         <v>328240</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,10 +2665,10 @@
         <v>332240</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,10 +2679,10 @@
         <v>334240</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>7</v>
@@ -2623,13 +2696,16 @@
         <v>339240</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,13 +2716,16 @@
         <v>341240</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,13 +2736,16 @@
         <v>344240</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,10 +2756,10 @@
         <v>347240</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,16 +2770,19 @@
         <v>350240</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,16 +2793,19 @@
         <v>352240</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,13 +2816,16 @@
         <v>353240</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,13 +2836,16 @@
         <v>360240</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,10 +2856,10 @@
         <v>363240</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,10 +2870,10 @@
         <v>365240</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,13 +2884,16 @@
         <v>366240</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,10 +2904,10 @@
         <v>368240</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,10 +2918,10 @@
         <v>371240</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,10 +2932,10 @@
         <v>373240</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,13 +2946,16 @@
         <v>375240</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,13 +2966,16 @@
         <v>378240</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,16 +2986,19 @@
         <v>381240</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,13 +3009,16 @@
         <v>382240</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,10 +3029,10 @@
         <v>386240</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,13 +3043,16 @@
         <v>387240</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,10 +3063,10 @@
         <v>389240</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>9</v>
@@ -2968,16 +3080,19 @@
         <v>397240</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,10 +3103,10 @@
         <v>399240</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,10 +3117,10 @@
         <v>400240</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,10 +3131,10 @@
         <v>403240</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>10</v>
@@ -3033,13 +3148,16 @@
         <v>411240</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,16 +3168,19 @@
         <v>412240</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,16 +3191,16 @@
         <v>419240</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,16 +3211,19 @@
         <v>421240</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,13 +3234,16 @@
         <v>425240</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,10 +3254,10 @@
         <v>428240</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,13 +3268,16 @@
         <v>431240</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3288,10 @@
         <v>434240</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,13 +3302,16 @@
         <v>436240</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,16 +3322,19 @@
         <v>439240</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,19 +3345,22 @@
         <v>454240</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>13</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,16 +3371,19 @@
         <v>454240</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,10 +3394,10 @@
         <v>456240</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" s="2"/>
     </row>
@@ -3267,10 +3409,10 @@
         <v>458240</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,16 +3423,19 @@
         <v>460240</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,19 +3446,22 @@
         <v>464240</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>15</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,10 +3472,10 @@
         <v>475240</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>16</v>
@@ -3341,13 +3489,13 @@
         <v>477240</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,10 +3506,10 @@
         <v>479240</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,10 +3520,10 @@
         <v>484240</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,16 +3534,19 @@
         <v>485240</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,10 +3557,10 @@
         <v>486240</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>17</v>
@@ -3423,10 +3574,16 @@
         <v>491240</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,17 +3594,20 @@
         <v>496240</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,10 +3618,10 @@
         <v>501240</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>18</v>
@@ -3475,16 +3635,19 @@
         <v>504240</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,10 +3658,10 @@
         <v>512240</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" s="2" t="n">
         <v>19</v>
@@ -3512,10 +3675,10 @@
         <v>514240</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,10 +3689,10 @@
         <v>516240</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,16 +3703,19 @@
         <v>520240</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,10 +3726,10 @@
         <v>527240</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,10 +3740,13 @@
         <v>530240</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,10 +3757,10 @@
         <v>533240</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3602,10 +3771,13 @@
         <v>535240</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,10 +3788,10 @@
         <v>539240</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,10 +3802,10 @@
         <v>542240</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,10 +3816,10 @@
         <v>544240</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,10 +3830,13 @@
         <v>547240</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,10 +3847,13 @@
         <v>548240</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,10 +3864,10 @@
         <v>550240</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,10 +3878,10 @@
         <v>552240</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,10 +3892,10 @@
         <v>553240</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,10 +3906,13 @@
         <v>555240</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +3923,10 @@
         <v>557240</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
